--- a/data/158/COJ/old/s14rn_en.xlsx
+++ b/data/158/COJ/old/s14rn_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6850" yWindow="110" windowWidth="15470" windowHeight="9290"/>
+    <workbookView xWindow="6855" yWindow="105" windowWidth="15465" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Real!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -699,35 +699,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
-    <col min="2" max="169" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.59765625" customWidth="1"/>
+    <col min="2" max="170" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="H4" s="4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -769,9 +769,10 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
@@ -850,11 +851,14 @@
       <c r="Z6" s="20">
         <v>2018</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -881,9 +885,10 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -960,13 +965,16 @@
         <v>138101</v>
       </c>
       <c r="Z8" s="9">
-        <v>138369.60000000001</v>
-      </c>
-      <c r="AA8" s="23">
-        <v>139579.79999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>138588.5</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>139968</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>133568.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
@@ -1043,13 +1051,16 @@
         <v>21862.7</v>
       </c>
       <c r="Z9" s="9">
-        <v>20452.599999999999</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>21156.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>20457.400000000001</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>21202.2</v>
+      </c>
+      <c r="AB9" s="24">
+        <v>19551.599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
@@ -1126,13 +1137,16 @@
         <v>41643.5</v>
       </c>
       <c r="Z10" s="9">
-        <v>41975.1</v>
-      </c>
-      <c r="AA10" s="24">
-        <v>42003.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>41987.199999999997</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>42281.1</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>42616.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
@@ -1209,13 +1223,16 @@
         <v>19215.900000000001</v>
       </c>
       <c r="Z11" s="9">
-        <v>19652.599999999999</v>
-      </c>
-      <c r="AA11" s="24">
-        <v>19206.599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>19657.2</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>18852.599999999999</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>18332.599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1292,13 +1309,16 @@
         <v>21375.9</v>
       </c>
       <c r="Z12" s="9">
-        <v>21191.4</v>
-      </c>
-      <c r="AA12" s="24">
-        <v>21980.799999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>21197</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>22555.3</v>
+      </c>
+      <c r="AB12" s="24">
+        <v>23633.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
@@ -1375,13 +1395,16 @@
         <v>1049.7</v>
       </c>
       <c r="Z13" s="9">
-        <v>1098.5</v>
-      </c>
-      <c r="AA13" s="24">
-        <v>822.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>1098.8</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>833.6</v>
+      </c>
+      <c r="AB13" s="24">
+        <v>730.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
@@ -1458,13 +1481,16 @@
         <v>44084.7</v>
       </c>
       <c r="Z14" s="9">
-        <v>45259.3</v>
-      </c>
-      <c r="AA14" s="24">
-        <v>45609.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>45468.800000000003</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>45914</v>
+      </c>
+      <c r="AB14" s="24">
+        <v>41469.599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
@@ -1541,13 +1567,16 @@
         <v>8001.6</v>
       </c>
       <c r="Z15" s="9">
-        <v>8072.5</v>
-      </c>
-      <c r="AA15" s="24">
-        <v>8287.2999999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>8101</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>8233.7000000000007</v>
+      </c>
+      <c r="AB15" s="24">
+        <v>6792.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1624,13 +1653,16 @@
         <v>7023.6</v>
       </c>
       <c r="Z16" s="9">
-        <v>7241.4</v>
-      </c>
-      <c r="AA16" s="24">
-        <v>8069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>7244.1</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>7846.2</v>
+      </c>
+      <c r="AB16" s="24">
+        <v>7967.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>12</v>
       </c>
@@ -1707,13 +1739,16 @@
         <v>29056.799999999999</v>
       </c>
       <c r="Z17" s="9">
-        <v>29935.8</v>
-      </c>
-      <c r="AA17" s="24">
-        <v>29280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>30113.200000000001</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>29843.5</v>
+      </c>
+      <c r="AB17" s="24">
+        <v>26787.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
@@ -1792,11 +1827,14 @@
       <c r="Z18" s="9">
         <v>1071.5999999999999</v>
       </c>
-      <c r="AA18" s="24">
-        <v>971.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA18" s="9">
+        <v>997.4</v>
+      </c>
+      <c r="AB18" s="24">
+        <v>906.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
@@ -1873,13 +1911,16 @@
         <v>187.2</v>
       </c>
       <c r="Z19" s="9">
-        <v>195.1</v>
-      </c>
-      <c r="AA19" s="24">
-        <v>185.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>195.9</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>191.1</v>
+      </c>
+      <c r="AB19" s="24">
+        <v>204.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>14</v>
       </c>
@@ -1956,13 +1997,16 @@
         <v>29455.1</v>
       </c>
       <c r="Z20" s="9">
-        <v>29504.6</v>
-      </c>
-      <c r="AA20" s="24">
-        <v>29691.599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>29501.3</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>29454.799999999999</v>
+      </c>
+      <c r="AB20" s="24">
+        <v>28586.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>15</v>
       </c>
@@ -2041,11 +2085,14 @@
       <c r="Z21" s="9">
         <v>18724.7</v>
       </c>
-      <c r="AA21" s="24">
-        <v>18530.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA21" s="9">
+        <v>18302.3</v>
+      </c>
+      <c r="AB21" s="24">
+        <v>18106.599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
@@ -2124,11 +2171,14 @@
       <c r="Z22" s="9">
         <v>30</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA22" s="9">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB22" s="24">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
@@ -2205,13 +2255,16 @@
         <v>10240.700000000001</v>
       </c>
       <c r="Z23" s="9">
-        <v>9936.2000000000007</v>
-      </c>
-      <c r="AA23" s="24">
-        <v>10274.799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>9933</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>10278.799999999999</v>
+      </c>
+      <c r="AB23" s="24">
+        <v>9701.2000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>23</v>
       </c>
@@ -2290,11 +2343,14 @@
       <c r="Z24" s="10">
         <v>822.6</v>
       </c>
-      <c r="AA24" s="25">
-        <v>857.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA24" s="10">
+        <v>845.6</v>
+      </c>
+      <c r="AB24" s="25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>18</v>
       </c>
